--- a/docs/Results.xlsx
+++ b/docs/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I529010/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I529010/CodeSpace/IsATriangle/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F9A4484-BC43-A14C-AF2C-523D52318854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3271AB-3E9C-3341-B451-4DF5750563DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>side3</t>
   </si>
   <si>
-    <t>April 10, 2025</t>
-  </si>
-  <si>
     <t>TC01</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Team 2 (Deepak Jain, Rahul Karda, Uday Damerla, Hamad Khan, Priya Kumari)</t>
+  </si>
+  <si>
+    <t>May 10, 2025</t>
   </si>
 </sst>
 </file>
@@ -340,20 +340,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +350,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +671,7 @@
   <dimension ref="B4:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -688,25 +688,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -714,12 +714,12 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -727,12 +727,12 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -740,41 +740,41 @@
       <c r="H7" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
@@ -784,23 +784,23 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -826,16 +826,16 @@
     </row>
     <row r="12" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -847,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -861,16 +861,16 @@
     </row>
     <row r="13" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -882,13 +882,13 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
         <v>14</v>
@@ -896,16 +896,16 @@
     </row>
     <row r="14" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
         <v>14</v>
@@ -931,16 +931,16 @@
     </row>
     <row r="15" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -952,13 +952,13 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" t="s">
         <v>14</v>
@@ -966,16 +966,16 @@
     </row>
     <row r="16" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
         <v>14</v>
@@ -1001,16 +1001,16 @@
     </row>
     <row r="17" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
       </c>
       <c r="F17">
         <v>-1</v>
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
         <v>14</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="18" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -1057,13 +1057,13 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
         <v>14</v>
@@ -1071,16 +1071,16 @@
     </row>
     <row r="19" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1092,13 +1092,13 @@
         <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
         <v>14</v>
@@ -1106,16 +1106,16 @@
     </row>
     <row r="20" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -1127,13 +1127,13 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
@@ -1141,6 +1141,15 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
@@ -1149,15 +1158,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
